--- a/Jogos_do_Dia/2024-01-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -657,7 +657,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -669,134 +669,134 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Carlisle United</t>
+          <t>Forest Green Rovers</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4.24</v>
       </c>
       <c r="L2" t="n">
-        <v>5.92</v>
+        <v>6.38</v>
       </c>
       <c r="M2" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="N2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AP2" t="n">
         <v>3</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>2.36</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -808,128 +808,128 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Forest Green Rovers</t>
+          <t>Carlisle United</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="K3" t="n">
-        <v>5.15</v>
+        <v>4.14</v>
       </c>
       <c r="L3" t="n">
-        <v>8.449999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="N3" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="R3" t="n">
-        <v>4.2</v>
+        <v>3.76</v>
       </c>
       <c r="S3" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>1.82</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="X3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AC3" t="n">
         <v>1.16</v>
       </c>
-      <c r="Y3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.21</v>
-      </c>
       <c r="AD3" t="n">
-        <v>3.16</v>
+        <v>2.55</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>6.09</v>
+        <v>2.98</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AI3" t="n">
-        <v>3.95</v>
+        <v>3.48</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.7</v>
+        <v>3.28</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="AM3" t="n">
-        <v>2</v>
+        <v>2.39</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.58</v>
+        <v>1.87</v>
       </c>
       <c r="AP3" t="n">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
@@ -972,10 +972,10 @@
         <v>1.47</v>
       </c>
       <c r="K4" t="n">
-        <v>4.94</v>
+        <v>4.33</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -996,10 +996,10 @@
         <v>4.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U4" t="n">
         <v>1.95</v>

--- a/Jogos_do_Dia/2024-01-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="K2" t="n">
-        <v>4.24</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>6.38</v>
+        <v>6.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.3</v>
@@ -718,10 +718,10 @@
         <v>4.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="T2" t="n">
-        <v>2.13</v>
+        <v>2.3</v>
       </c>
       <c r="U2" t="n">
         <v>1.83</v>
@@ -830,13 +830,13 @@
         <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="K3" t="n">
-        <v>4.14</v>
+        <v>4.25</v>
       </c>
       <c r="L3" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.36</v>
@@ -857,10 +857,10 @@
         <v>3.76</v>
       </c>
       <c r="S3" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>1.82</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
         <v>1.91</v>
@@ -969,13 +969,13 @@
         <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="K4" t="n">
-        <v>4.33</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>6.75</v>
+        <v>7.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -996,10 +996,10 @@
         <v>4.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
         <v>1.95</v>
